--- a/div/eventsheet/1BL-minreqs-2020.xlsx
+++ b/div/eventsheet/1BL-minreqs-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schiedsrichterliste" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Schiedsrichterliste!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Vereinsliste!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>Zwei Standardfelder mit Netzen</t>
   </si>
@@ -98,13 +98,7 @@
     <t>Liebe Schiedsrichterinnen, liebe Schiedsrichter,</t>
   </si>
   <si>
-    <t>mossmannute@gmail.com</t>
-  </si>
-  <si>
     <t>Vorsitzender DBLV:</t>
-  </si>
-  <si>
-    <t>Geschäftsstelle DBLV:</t>
   </si>
   <si>
     <t xml:space="preserve">Bundesliga Spielleiter:             </t>
@@ -233,16 +227,10 @@
     <t>Empfehlungen</t>
   </si>
   <si>
-    <t>Mindestanforderungen 1. Bundesliga ab Saison 2020-21 gemäß DBLV-Spielordnung</t>
-  </si>
-  <si>
     <t>die folgende Liste beinhaltet die durch die Schiedsrichter zu überprüfenden Mindestanforderungen gemäß DBLV-Spielordnung, Durchführungsbestimmungen zur Ausstattung der Sportstätte und zur Durchführung des Spieltages, für Wettkämpfe in der 1. und 2. Badminton-Bundesliga. Die Liste ist ausschließlich durch die eingesetzten Schiedsrichter zu bearbeiten und durch den Heimverein mit der Vereinsliste per E-Mail zu versenden an den Bundesliga-Spielleiter mit Kopie an den Vorsitzenden des AfBL sowie die Geschäftsstelledes DBLV und den DBLV-Online-Redakteur. (Mailadressen unten auf dem Formular).</t>
   </si>
   <si>
     <t>Sollte es beim Ausfüllen dieser Liste doch zu Fragen kommen, so können diese im Notfall per Telefon mit dem Bundesliga-Spielleiter Bernd Mohaupt unter der Rufnummer 05241-531760 oder dem Präsidenten des DBLV Arno Schley unter der Rufnummer 0176/52500972 oder 06821/53456 kurzfristig beantwortet werden.</t>
-  </si>
-  <si>
-    <t>Online-Redakteur DBLV:</t>
   </si>
   <si>
     <t>die folgende Liste beinhaltet die gemäß DBLV-Spielordnung, Durchführungsbestimmungen zur Ausstattung der Sportstätte und zur Druchführung des Spieltages, durch die beteiligten Vereine zu überprüfenden Mindestanforderungenund Empfehlungen für Wettkämpfe in der 1. und 2. Badminton-Bundesliga. Die Liste ist dem Original-Spielbericht bei Einsendung an den Bundesliga-Spielleiter mit Kopie an den Präsidenten des DBLV, die Geschäftsstelle des DBLV und den DBLV-Online-Redakteur durch den Heimverein beizufügen.</t>
@@ -263,9 +251,6 @@
   </si>
   <si>
     <t>bernd.mohaupt@onlinehome.de</t>
-  </si>
-  <si>
-    <t>lennart.notni@web.de</t>
   </si>
   <si>
     <r>
@@ -378,6 +363,9 @@
   </si>
   <si>
     <t>Ergebnis Prüfung Eingabe Pflichtfelder:</t>
+  </si>
+  <si>
+    <t>Mindestanforderungen 1. Bundesliga ab Saison 2021-22 gemäß DBLV-Spielordnung</t>
   </si>
 </sst>
 </file>
@@ -980,220 +968,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1202,6 +979,60 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1226,7 +1057,146 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1242,6 +1212,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,11 +1609,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1633,63 +1621,63 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1697,27 +1685,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,75 +1713,75 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L29" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L26" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L27" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L28" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L29" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L30" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1801,167 +1789,167 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L27" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$33" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$34" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L30" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L33" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L34" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L18" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L24" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$25" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$26" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$27" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$18" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L19" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L26" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L27" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$21" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$29" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$30" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$31" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$32" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$33" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L29" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L30" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L32" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L33" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="K17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L17" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2284,17 +2272,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="A1" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="11"/>
@@ -2307,7 +2295,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="11"/>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -2316,15 +2304,15 @@
         <v>16</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="128"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="116"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="11"/>
       <c r="K3">
         <f>IF(ISBLANK(D3),0,1)</f>
@@ -2362,41 +2350,41 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="71" t="str">
+      <c r="B5" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59" t="str">
         <f>IF(M36+N36=16,IF(O36&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="72" t="e">
+      <c r="F5" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="72" t="e">
+      <c r="G5" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="73" t="e">
+      <c r="H5" s="61" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -2404,24 +2392,24 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="71" t="str">
+      <c r="B6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="str">
         <f>IF(P3=5,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F6" s="72" t="e">
+      <c r="F6" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="72" t="e">
+      <c r="G6" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="73" t="e">
+      <c r="H6" s="61" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -2464,12 +2452,12 @@
     </row>
     <row r="10" spans="1:16" ht="18">
       <c r="A10" s="11"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2478,54 +2466,54 @@
     </row>
     <row r="11" spans="1:16" ht="93" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="56.25" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="B13" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:16" ht="21.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
@@ -2544,12 +2532,12 @@
       <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="20" t="s">
         <v>19</v>
       </c>
@@ -2558,19 +2546,19 @@
       </c>
       <c r="I16" s="11"/>
       <c r="K16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="N16" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
@@ -2578,12 +2566,12 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="22"/>
@@ -2611,12 +2599,12 @@
       <c r="B18" s="24">
         <v>2</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="22"/>
@@ -2644,12 +2632,12 @@
       <c r="B19" s="24">
         <v>3</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="22"/>
@@ -2675,14 +2663,14 @@
     <row r="20" spans="1:15" s="2" customFormat="1" ht="66" customHeight="1" thickBot="1">
       <c r="A20" s="22"/>
       <c r="B20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="22"/>
@@ -2710,12 +2698,12 @@
       <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="22"/>
@@ -2740,12 +2728,12 @@
       <c r="B22" s="24">
         <v>6</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="22"/>
@@ -2773,12 +2761,12 @@
       <c r="B23" s="24">
         <v>7</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="22"/>
@@ -2806,12 +2794,12 @@
       <c r="B24" s="24">
         <v>8</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="22"/>
@@ -2839,12 +2827,12 @@
       <c r="B25" s="24">
         <v>9</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="22"/>
@@ -2872,12 +2860,12 @@
       <c r="B26" s="24">
         <v>10</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="22"/>
@@ -2905,12 +2893,12 @@
       <c r="B27" s="24">
         <v>11</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="22"/>
@@ -2938,12 +2926,12 @@
       <c r="B28" s="24">
         <v>12</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
       <c r="I28" s="22"/>
@@ -2971,12 +2959,12 @@
       <c r="B29" s="24">
         <v>13</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
       <c r="I29" s="22"/>
@@ -3004,12 +2992,12 @@
       <c r="B30" s="24">
         <v>14</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="22"/>
@@ -3037,12 +3025,12 @@
       <c r="B31" s="24">
         <v>15</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="22"/>
@@ -3070,12 +3058,12 @@
       <c r="B32" s="24">
         <v>16</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="22"/>
@@ -3111,37 +3099,37 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="11"/>
-      <c r="B34" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
+      <c r="B34" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="11"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="11"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="11"/>
       <c r="M36">
         <f>SUM(M17:M33)</f>
@@ -3158,35 +3146,35 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="11"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="11"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="11"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="125"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:17">
@@ -3206,14 +3194,14 @@
     <row r="41" spans="1:17" ht="20.25">
       <c r="A41" s="11"/>
       <c r="B41" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="131"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:17">
@@ -3221,10 +3209,10 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="134"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="11"/>
       <c r="Q42" s="28"/>
     </row>
@@ -3235,7 +3223,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3244,7 +3232,7 @@
     <row r="44" spans="1:17">
       <c r="A44" s="34"/>
       <c r="B44" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -3268,19 +3256,15 @@
     <row r="46" spans="1:17">
       <c r="A46" s="34"/>
       <c r="B46" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" s="34"/>
-      <c r="F46" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>24</v>
-      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="40"/>
       <c r="I46" s="34"/>
     </row>
@@ -3298,19 +3282,15 @@
     <row r="48" spans="1:17" ht="21.75" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48" s="34"/>
-      <c r="F48" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>69</v>
-      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="40"/>
       <c r="I48" s="34"/>
     </row>
@@ -3318,9 +3298,8 @@
       <c r="D50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="E6:H6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E41:H42"/>
     <mergeCell ref="C19:F19"/>
@@ -3337,6 +3316,7 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B34:C39"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="D34:H39"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C24:F24"/>
@@ -3399,12 +3379,10 @@
   <hyperlinks>
     <hyperlink ref="D48" r:id="rId1"/>
     <hyperlink ref="D46" r:id="rId2"/>
-    <hyperlink ref="G46" r:id="rId3"/>
-    <hyperlink ref="G48" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3412,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3433,17 +3411,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="A1" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3464,24 +3442,24 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75">
       <c r="A3" s="11"/>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="128"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="116"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3">
@@ -3525,44 +3503,44 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="71" t="str">
+      <c r="B5" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59" t="str">
         <f>IF(M38+N38=10,IF(O38&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="71" t="e">
+      <c r="F5" s="59" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="71" t="e">
+      <c r="G5" s="59" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="98" t="e">
+      <c r="H5" s="120" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3577,24 +3555,24 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="71" t="str">
+      <c r="B6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="59" t="str">
         <f>IF(M39+N39=5,IF(N39&gt;0,"Mindestens eine Empfehlung nicht umgesetzt","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F6" s="71" t="e">
+      <c r="F6" s="59" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="71" t="e">
+      <c r="G6" s="59" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="98" t="e">
+      <c r="H6" s="120" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3609,24 +3587,24 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="71" t="str">
+      <c r="B7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="59" t="str">
         <f>IF(Q3=6,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F7" s="72" t="e">
+      <c r="F7" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="72" t="e">
+      <c r="G7" s="60" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="73" t="e">
+      <c r="H7" s="61" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3690,12 +3668,12 @@
     </row>
     <row r="11" spans="1:23" ht="18">
       <c r="A11" s="11"/>
-      <c r="B11" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3711,15 +3689,15 @@
     </row>
     <row r="12" spans="1:23" ht="76.5" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
+      <c r="B12" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3728,25 +3706,25 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
     </row>
     <row r="13" spans="1:23" ht="30.75" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="B13" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -3758,15 +3736,15 @@
     </row>
     <row r="14" spans="1:23" ht="56.25" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
+      <c r="B14" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="17"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3778,15 +3756,15 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3819,12 +3797,12 @@
       <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
+      <c r="C17" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="20" t="s">
         <v>19</v>
       </c>
@@ -3834,19 +3812,19 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>56</v>
-      </c>
       <c r="N17" s="30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P17" s="11"/>
     </row>
@@ -3855,12 +3833,12 @@
       <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
+      <c r="C18" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="22"/>
@@ -3887,12 +3865,12 @@
       <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="C19" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
+      <c r="C19" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="47"/>
       <c r="H19" s="45"/>
       <c r="I19" s="22"/>
@@ -3916,12 +3894,12 @@
       <c r="B20" s="24">
         <v>3</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="22"/>
@@ -3951,12 +3929,12 @@
       <c r="B21" s="24">
         <v>4</v>
       </c>
-      <c r="C21" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
+      <c r="C21" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="22"/>
@@ -3980,22 +3958,22 @@
         <v>0</v>
       </c>
       <c r="P21" s="22"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A22" s="22"/>
       <c r="B22" s="24">
         <v>5</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="22"/>
@@ -4025,12 +4003,12 @@
       <c r="B23" s="24">
         <v>6</v>
       </c>
-      <c r="C23" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
+      <c r="C23" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="22"/>
@@ -4060,12 +4038,12 @@
       <c r="B24" s="24">
         <v>7</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="22"/>
@@ -4086,25 +4064,25 @@
       </c>
       <c r="O24" s="51"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A25" s="22"/>
       <c r="B25" s="24">
         <v>8</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="33"/>
       <c r="H25" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -4123,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="P25" s="22"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A26" s="22"/>
       <c r="B26" s="24">
         <v>9</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="22"/>
@@ -4172,12 +4150,12 @@
       <c r="B27" s="24">
         <v>10</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="22"/>
@@ -4211,12 +4189,12 @@
       <c r="B28" s="24">
         <v>11</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
+      <c r="C28" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
       <c r="I28" s="22"/>
@@ -4244,14 +4222,14 @@
     <row r="29" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A29" s="22"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="7"/>
@@ -4269,12 +4247,12 @@
       <c r="B30" s="24">
         <v>12</v>
       </c>
-      <c r="C30" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
+      <c r="C30" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="22"/>
@@ -4304,12 +4282,12 @@
       <c r="B31" s="24">
         <v>13</v>
       </c>
-      <c r="C31" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
+      <c r="C31" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="22"/>
@@ -4339,12 +4317,12 @@
       <c r="B32" s="24">
         <v>14</v>
       </c>
-      <c r="C32" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
+      <c r="C32" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="22"/>
@@ -4374,12 +4352,12 @@
       <c r="B33" s="24">
         <v>15</v>
       </c>
-      <c r="C33" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
+      <c r="C33" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="22"/>
@@ -4409,12 +4387,12 @@
       <c r="B34" s="24">
         <v>16</v>
       </c>
-      <c r="C34" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="103"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
       <c r="I34" s="22"/>
@@ -4459,15 +4437,15 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="11"/>
-      <c r="B36" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="B36" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="134"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -4479,13 +4457,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="11"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -4497,17 +4475,17 @@
     </row>
     <row r="38" spans="1:16" ht="33.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="11">
@@ -4536,7 +4514,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="11">
@@ -4552,15 +4530,15 @@
     </row>
     <row r="40" spans="1:16" ht="20.25" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131"/>
+      <c r="B40" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -4572,13 +4550,13 @@
     </row>
     <row r="41" spans="1:16" ht="24.75" customHeight="1">
       <c r="A41" s="11"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="134"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="81"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -4595,7 +4573,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -4628,15 +4606,15 @@
     </row>
     <row r="44" spans="1:16" ht="44.25" customHeight="1">
       <c r="A44" s="11"/>
-      <c r="B44" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="138"/>
+      <c r="B44" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="132"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -4653,7 +4631,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -4687,7 +4665,7 @@
     <row r="47" spans="1:16">
       <c r="A47" s="41"/>
       <c r="B47" s="42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -4711,19 +4689,15 @@
     <row r="49" spans="1:9">
       <c r="A49" s="34"/>
       <c r="B49" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E49" s="34"/>
-      <c r="F49" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>24</v>
-      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="40"/>
       <c r="I49" s="34"/>
     </row>
@@ -4741,19 +4715,15 @@
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="34"/>
       <c r="B51" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51" s="34"/>
-      <c r="F51" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>69</v>
-      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="40"/>
       <c r="I51" s="34"/>
     </row>
@@ -4761,7 +4731,7 @@
       <c r="D53" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="38">
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="C26:F26"/>
@@ -4949,11 +4919,9 @@
   <hyperlinks>
     <hyperlink ref="D51" r:id="rId1"/>
     <hyperlink ref="D49" r:id="rId2"/>
-    <hyperlink ref="G49" r:id="rId3"/>
-    <hyperlink ref="G51" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/div/eventsheet/1BL-minreqs-2020.xlsx
+++ b/div/eventsheet/1BL-minreqs-2020.xlsx
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -979,6 +979,87 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1021,148 +1102,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1211,6 +1154,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1229,7 +1181,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2251,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:H48"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2272,17 +2275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="11"/>
@@ -2312,7 +2315,7 @@
       <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="11"/>
       <c r="K3">
         <f>IF(ISBLANK(D3),0,1)</f>
@@ -2372,19 +2375,19 @@
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="84" t="str">
         <f>IF(M36+N36=16,IF(O36&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="60" t="e">
+      <c r="F5" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="60" t="e">
+      <c r="G5" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="61" t="e">
+      <c r="H5" s="86" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -2397,19 +2400,19 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="84" t="str">
         <f>IF(P3=5,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F6" s="60" t="e">
+      <c r="F6" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="60" t="e">
+      <c r="G6" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="61" t="e">
+      <c r="H6" s="86" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -2452,12 +2455,12 @@
     </row>
     <row r="10" spans="1:16" ht="18">
       <c r="A10" s="11"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2466,54 +2469,54 @@
     </row>
     <row r="11" spans="1:16" ht="93" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="56.25" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:16" ht="21.75" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
@@ -2532,12 +2535,12 @@
       <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="20" t="s">
         <v>19</v>
       </c>
@@ -2566,12 +2569,12 @@
       <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
+      <c r="C17" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="22"/>
@@ -2599,12 +2602,12 @@
       <c r="B18" s="24">
         <v>2</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="22"/>
@@ -2632,12 +2635,12 @@
       <c r="B19" s="24">
         <v>3</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="22"/>
@@ -2665,12 +2668,12 @@
       <c r="B20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="22"/>
@@ -2698,12 +2701,12 @@
       <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="22"/>
@@ -2728,12 +2731,12 @@
       <c r="B22" s="24">
         <v>6</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="22"/>
@@ -2761,12 +2764,12 @@
       <c r="B23" s="24">
         <v>7</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="22"/>
@@ -2794,12 +2797,12 @@
       <c r="B24" s="24">
         <v>8</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="22"/>
@@ -2827,12 +2830,12 @@
       <c r="B25" s="24">
         <v>9</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="22"/>
@@ -2860,12 +2863,12 @@
       <c r="B26" s="24">
         <v>10</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="22"/>
@@ -2893,12 +2896,12 @@
       <c r="B27" s="24">
         <v>11</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="22"/>
@@ -2926,12 +2929,12 @@
       <c r="B28" s="24">
         <v>12</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
       <c r="I28" s="22"/>
@@ -2959,12 +2962,12 @@
       <c r="B29" s="24">
         <v>13</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
       <c r="I29" s="22"/>
@@ -2992,12 +2995,12 @@
       <c r="B30" s="24">
         <v>14</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="22"/>
@@ -3025,12 +3028,12 @@
       <c r="B31" s="24">
         <v>15</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="22"/>
@@ -3058,12 +3061,12 @@
       <c r="B32" s="24">
         <v>16</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="22"/>
@@ -3099,37 +3102,37 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="11"/>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="11"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="11"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="11"/>
       <c r="M36">
         <f>SUM(M17:M33)</f>
@@ -3146,35 +3149,35 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="11"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="11"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="11"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:17">
@@ -3198,10 +3201,10 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="78"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:17">
@@ -3209,10 +3212,10 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
       <c r="I42" s="11"/>
       <c r="Q42" s="28"/>
     </row>
@@ -3298,8 +3301,20 @@
       <c r="D50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="28">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="D34:H39"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E41:H42"/>
     <mergeCell ref="C19:F19"/>
@@ -3316,18 +3331,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B34:C39"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="D34:H39"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="G17:G32">
     <cfRule type="expression" dxfId="44" priority="4">
@@ -3391,7 +3394,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3411,17 +3414,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3447,10 +3450,10 @@
     </row>
     <row r="3" spans="1:23" ht="15.75">
       <c r="A3" s="11"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="119"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="58"/>
       <c r="E3" s="14" t="s">
         <v>17</v>
@@ -3459,7 +3462,7 @@
       <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3">
@@ -3528,19 +3531,19 @@
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="84" t="str">
         <f>IF(M38+N38=10,IF(O38&gt;0,"Mindestens ein Verstoß","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F5" s="59" t="e">
+      <c r="F5" s="84" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="59" t="e">
+      <c r="G5" s="84" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="120" t="e">
+      <c r="H5" s="101" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3560,19 +3563,19 @@
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="84" t="str">
         <f>IF(M39+N39=5,IF(N39&gt;0,"Mindestens eine Empfehlung nicht umgesetzt","alles ok"),"nicht alle Haken oder doppelt gesetzt")</f>
         <v>nicht alle Haken oder doppelt gesetzt</v>
       </c>
-      <c r="F6" s="59" t="e">
+      <c r="F6" s="84" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="59" t="e">
+      <c r="G6" s="84" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="120" t="e">
+      <c r="H6" s="101" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3592,19 +3595,19 @@
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="84" t="str">
         <f>IF(Q3=6,"alles ok","nicht alle Pflichtfelder ausgefüllt")</f>
         <v>nicht alle Pflichtfelder ausgefüllt</v>
       </c>
-      <c r="F7" s="60" t="e">
+      <c r="F7" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="60" t="e">
+      <c r="G7" s="85" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="61" t="e">
+      <c r="H7" s="86" t="e">
         <f>IF(#REF!+#REF!=17,IF(#REF!&gt;0,"Mindestens ein Verstoß","alles ok"),"Anzahl Felder stimmt nicht")</f>
         <v>#REF!</v>
       </c>
@@ -3668,12 +3671,12 @@
     </row>
     <row r="11" spans="1:23" ht="18">
       <c r="A11" s="11"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3706,13 +3709,13 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
     </row>
     <row r="13" spans="1:23" ht="30.75" customHeight="1">
       <c r="A13" s="11"/>
@@ -3736,15 +3739,15 @@
     </row>
     <row r="14" spans="1:23" ht="56.25" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="17"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3756,15 +3759,15 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3797,12 +3800,12 @@
       <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="20" t="s">
         <v>19</v>
       </c>
@@ -3833,12 +3836,12 @@
       <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="22"/>
@@ -3865,12 +3868,12 @@
       <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="47"/>
       <c r="H19" s="45"/>
       <c r="I19" s="22"/>
@@ -3894,12 +3897,12 @@
       <c r="B20" s="24">
         <v>3</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="22"/>
@@ -3929,12 +3932,12 @@
       <c r="B21" s="24">
         <v>4</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="22"/>
@@ -3958,22 +3961,22 @@
         <v>0</v>
       </c>
       <c r="P21" s="22"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A22" s="22"/>
       <c r="B22" s="24">
         <v>5</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="22"/>
@@ -4003,12 +4006,12 @@
       <c r="B23" s="24">
         <v>6</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="22"/>
@@ -4038,12 +4041,12 @@
       <c r="B24" s="24">
         <v>7</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="22"/>
@@ -4064,22 +4067,22 @@
       </c>
       <c r="O24" s="51"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
     </row>
     <row r="25" spans="1:20" s="2" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A25" s="22"/>
       <c r="B25" s="24">
         <v>8</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="33"/>
       <c r="H25" s="46" t="s">
         <v>38</v>
@@ -4101,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="P25" s="22"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="130"/>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A26" s="22"/>
       <c r="B26" s="24">
         <v>9</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="22"/>
@@ -4150,12 +4153,12 @@
       <c r="B27" s="24">
         <v>10</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
       <c r="I27" s="22"/>
@@ -4189,12 +4192,12 @@
       <c r="B28" s="24">
         <v>11</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
       <c r="I28" s="22"/>
@@ -4222,14 +4225,14 @@
     <row r="29" spans="1:20" s="2" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A29" s="22"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="129"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="7"/>
@@ -4247,12 +4250,12 @@
       <c r="B30" s="24">
         <v>12</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
       <c r="I30" s="22"/>
@@ -4282,12 +4285,12 @@
       <c r="B31" s="24">
         <v>13</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
       <c r="I31" s="22"/>
@@ -4317,12 +4320,12 @@
       <c r="B32" s="24">
         <v>14</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="103"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="22"/>
@@ -4352,12 +4355,12 @@
       <c r="B33" s="24">
         <v>15</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="22"/>
@@ -4387,12 +4390,12 @@
       <c r="B34" s="24">
         <v>16</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
       <c r="I34" s="22"/>
@@ -4437,15 +4440,15 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="11"/>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -4457,13 +4460,13 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="11"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -4475,13 +4478,13 @@
     </row>
     <row r="38" spans="1:16" ht="33.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
@@ -4530,15 +4533,15 @@
     </row>
     <row r="40" spans="1:16" ht="20.25" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -4550,13 +4553,13 @@
     </row>
     <row r="41" spans="1:16" ht="24.75" customHeight="1">
       <c r="A41" s="11"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -4606,15 +4609,15 @@
     </row>
     <row r="44" spans="1:16" ht="44.25" customHeight="1">
       <c r="A44" s="11"/>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="132"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="113"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -4731,14 +4734,24 @@
       <c r="D53" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CBAB" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="Q12:W12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E6:H6"/>
@@ -4755,22 +4768,12 @@
     <mergeCell ref="D36:H38"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="Q12:W12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="G25">
     <cfRule type="expression" dxfId="33" priority="28">
@@ -4921,7 +4924,7 @@
     <hyperlink ref="D49" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>